--- a/数据结构成绩汇总/第12次上机实验成绩.xlsx
+++ b/数据结构成绩汇总/第12次上机实验成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈星宇\Desktop\数据结构成绩汇总\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈星宇\Documents\GitHub\data-structure\数据结构成绩汇总\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>学号</t>
   </si>
@@ -27,9 +27,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>成绩</t>
-  </si>
-  <si>
     <t> 周鹏杰</t>
   </si>
   <si>
@@ -334,13 +331,382 @@
   </si>
   <si>
     <t>杨志凡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竞赛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竞赛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验总成绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分制</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大作业成绩</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,6 +722,65 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -376,18 +801,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -689,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,180 +1141,230 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>151099187</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>151104010</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>151110045</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>151120023</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>151120083</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>151140015</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>151250177</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>161099024</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>161100011</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>161120093</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>161150021</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>161210042</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>171098532</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>171180591</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>171180607</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +1372,7 @@
         <v>171180609</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -893,10 +1383,10 @@
         <v>171180645</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +1394,7 @@
         <v>171830526</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -915,10 +1405,10 @@
         <v>171830544</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +1416,7 @@
         <v>171840514</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -937,7 +1427,7 @@
         <v>171840627</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -948,7 +1438,7 @@
         <v>171840708</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -959,7 +1449,7 @@
         <v>171850505</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -970,7 +1460,7 @@
         <v>171850523</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -981,7 +1471,7 @@
         <v>171850524</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -992,7 +1482,7 @@
         <v>171860001</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -1003,7 +1493,7 @@
         <v>171860006</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1014,7 +1504,7 @@
         <v>171860008</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -1025,7 +1515,7 @@
         <v>171860009</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -1036,7 +1526,7 @@
         <v>171860010</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>100</v>
@@ -1047,7 +1537,7 @@
         <v>171860014</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -1058,7 +1548,7 @@
         <v>171860019</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -1069,7 +1559,7 @@
         <v>171860021</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1080,7 +1570,7 @@
         <v>171860022</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -1091,7 +1581,7 @@
         <v>171860032</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>100</v>
@@ -1102,7 +1592,7 @@
         <v>171860033</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -1113,7 +1603,7 @@
         <v>171860511</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -1124,7 +1614,7 @@
         <v>171860513</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -1135,10 +1625,10 @@
         <v>171860516</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,10 +1636,10 @@
         <v>171860517</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1647,7 @@
         <v>171860519</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>100</v>
@@ -1168,10 +1658,10 @@
         <v>171860523</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,7 +1669,7 @@
         <v>171860524</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>100</v>
@@ -1190,7 +1680,7 @@
         <v>171860526</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -1201,10 +1691,10 @@
         <v>171860530</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,7 +1702,7 @@
         <v>171860534</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -1223,7 +1713,7 @@
         <v>171860535</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>100</v>
@@ -1234,7 +1724,7 @@
         <v>171860537</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -1245,7 +1735,7 @@
         <v>171860539</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -1256,7 +1746,7 @@
         <v>171860540</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>100</v>
@@ -1267,7 +1757,7 @@
         <v>171860541</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -1278,7 +1768,7 @@
         <v>171860542</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>100</v>
@@ -1289,7 +1779,7 @@
         <v>171860551</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>100</v>
@@ -1300,10 +1790,10 @@
         <v>171860555</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,7 +1801,7 @@
         <v>171860557</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -1322,7 +1812,7 @@
         <v>171860561</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>100</v>
@@ -1333,7 +1823,7 @@
         <v>171860563</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>100</v>
@@ -1344,7 +1834,7 @@
         <v>171860565</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>100</v>
@@ -1355,10 +1845,10 @@
         <v>171860566</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,7 +1856,7 @@
         <v>171860568</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>100</v>
@@ -1377,7 +1867,7 @@
         <v>171860570</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -1388,7 +1878,7 @@
         <v>171860572</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>100</v>
@@ -1399,7 +1889,7 @@
         <v>171860573</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>100</v>
@@ -1410,10 +1900,10 @@
         <v>171860576</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,7 +1911,7 @@
         <v>171860577</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>100</v>
@@ -1432,7 +1922,7 @@
         <v>171860579</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -1443,10 +1933,10 @@
         <v>171860581</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,7 +1944,7 @@
         <v>171860588</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>100</v>
@@ -1465,10 +1955,10 @@
         <v>171860596</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,10 +1966,10 @@
         <v>171860602</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,10 +1977,10 @@
         <v>171860604</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,7 +1988,7 @@
         <v>171860610</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>100</v>
@@ -1509,10 +1999,10 @@
         <v>171860612</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,10 +2010,10 @@
         <v>171860614</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,10 +2021,10 @@
         <v>171860616</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,7 +2032,7 @@
         <v>171860618</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>100</v>
@@ -1553,7 +2043,7 @@
         <v>171860626</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>100</v>
@@ -1564,10 +2054,10 @@
         <v>171860627</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1575,7 +2065,7 @@
         <v>171860628</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>100</v>
@@ -1586,10 +2076,10 @@
         <v>171860630</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +2087,7 @@
         <v>171860631</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>100</v>
@@ -1608,7 +2098,7 @@
         <v>171860634</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>100</v>
@@ -1619,7 +2109,7 @@
         <v>171860636</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>100</v>
@@ -1630,7 +2120,7 @@
         <v>171860645</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>100</v>
@@ -1641,10 +2131,10 @@
         <v>171860646</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,10 +2142,10 @@
         <v>171860648</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1663,7 +2153,7 @@
         <v>171860657</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>100</v>
@@ -1674,7 +2164,7 @@
         <v>171860659</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>100</v>
@@ -1685,10 +2175,10 @@
         <v>171860669</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1696,7 +2186,7 @@
         <v>171860670</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>100</v>
@@ -1707,10 +2197,10 @@
         <v>171860672</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1718,7 +2208,7 @@
         <v>171860675</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>100</v>
@@ -1729,10 +2219,10 @@
         <v>171860676</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1740,7 +2230,7 @@
         <v>171860682</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>100</v>
@@ -1751,10 +2241,10 @@
         <v>171860683</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1762,7 +2252,7 @@
         <v>171860684</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -1773,7 +2263,7 @@
         <v>171860685</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>100</v>
@@ -1784,7 +2274,7 @@
         <v>171860689</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>100</v>
@@ -1795,7 +2285,7 @@
         <v>171860692</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>100</v>
@@ -1806,10 +2296,10 @@
         <v>171860700</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1817,7 +2307,7 @@
         <v>171870545</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>100</v>
@@ -1828,7 +2318,7 @@
         <v>161220158</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>100</v>
